--- a/data/mutation_table/enteroroccus_mutation_table.xlsx
+++ b/data/mutation_table/enteroroccus_mutation_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Wandro\Documents\Projects\phage_cocktails\data\mutation_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen.Wandro\Documents\Projects\phage_cocktails\data\mutation_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E7651-C4A4-4546-A5EC-5B28122CF385}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCC0C26-FF96-447D-B750-C9380CBE4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1212" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B2DF6BB-D00C-47F4-8A69-CCE01FC28867}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9B2DF6BB-D00C-47F4-8A69-CCE01FC28867}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="185">
   <si>
     <t>Species</t>
   </si>
@@ -348,12 +348,6 @@
   <si>
     <t>Exopolysaccharide
 Locus</t>
-  </si>
-  <si>
-    <t>Mutated gene</t>
-  </si>
-  <si>
-    <t>Locus_id</t>
   </si>
   <si>
     <t>UMS_01916</t>
@@ -491,9 +485,6 @@
     <t>Ump</t>
   </si>
   <si>
-    <t>SDS1</t>
-  </si>
-  <si>
     <t>SDS2</t>
   </si>
   <si>
@@ -503,10 +494,248 @@
     <t>Ben</t>
   </si>
   <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Carl</t>
+    <t>UMS_01646</t>
+  </si>
+  <si>
+    <t>UMS_01161</t>
+  </si>
+  <si>
+    <t>UMS_00984</t>
+  </si>
+  <si>
+    <t>UMS_00243</t>
+  </si>
+  <si>
+    <t>UMS_00275</t>
+  </si>
+  <si>
+    <t>SQ1_02166</t>
+  </si>
+  <si>
+    <t>SQ1_02191</t>
+  </si>
+  <si>
+    <t>SQ1_01204</t>
+  </si>
+  <si>
+    <t>SQ1_02177</t>
+  </si>
+  <si>
+    <t>SQ1_00765</t>
+  </si>
+  <si>
+    <t>HMPREF9494_02367</t>
+  </si>
+  <si>
+    <t>HMPREF9494_02361</t>
+  </si>
+  <si>
+    <t>HMPREF9494_02513</t>
+  </si>
+  <si>
+    <t>Ump, SDS1</t>
+  </si>
+  <si>
+    <t>Bop, phiV12</t>
+  </si>
+  <si>
+    <t>Carl, phiV12, No phage</t>
+  </si>
+  <si>
+    <t>Bop, Ben, Bill, No phage</t>
+  </si>
+  <si>
+    <t>HMPREF9494_02501</t>
+  </si>
+  <si>
+    <t>HMPREF0352_0587</t>
+  </si>
+  <si>
+    <t>HMPREF0352_2730</t>
+  </si>
+  <si>
+    <t>D3Y30_RS07660</t>
+  </si>
+  <si>
+    <t>D3Y30_RS11110</t>
+  </si>
+  <si>
+    <t>D3Y30_RS11120</t>
+  </si>
+  <si>
+    <t>CpsD/CapB family tyrosine-protein kinase</t>
+  </si>
+  <si>
+    <t>polysaccharide biosynthesis protein</t>
+  </si>
+  <si>
+    <t>response regulator transcription factor</t>
+  </si>
+  <si>
+    <t>D3Y30_RS11125</t>
+  </si>
+  <si>
+    <t>tyrosine protein kinase</t>
+  </si>
+  <si>
+    <t>HOCGOLEH_00595</t>
+  </si>
+  <si>
+    <t>HOCGOLEH_00585</t>
+  </si>
+  <si>
+    <t>EF_2177</t>
+  </si>
+  <si>
+    <t>EF_2165</t>
+  </si>
+  <si>
+    <t>EpaR</t>
+  </si>
+  <si>
+    <t>Bacterial sugar transferase</t>
+  </si>
+  <si>
+    <t>TagF gene. glycerol glycerophosphotransferase</t>
+  </si>
+  <si>
+    <t>HOCGOLEH_00593</t>
+  </si>
+  <si>
+    <t>UCK_RS17015</t>
+  </si>
+  <si>
+    <t>EF_2194</t>
+  </si>
+  <si>
+    <t>Glucose-1-phosphate thymidylyltransferase;</t>
+  </si>
+  <si>
+    <t>EpaE</t>
+  </si>
+  <si>
+    <t>EF_2171</t>
+  </si>
+  <si>
+    <t>EpaW</t>
+  </si>
+  <si>
+    <t>Epimerase/dehydratase</t>
+  </si>
+  <si>
+    <t>Epa gene</t>
+  </si>
+  <si>
+    <t>V587 locus tag (EPA only)</t>
+  </si>
+  <si>
+    <t>Mutation
+Type</t>
+  </si>
+  <si>
+    <t>Locus id</t>
+  </si>
+  <si>
+    <t>Phage(s)</t>
+  </si>
+  <si>
+    <t>Mutated Host Gene</t>
+  </si>
+  <si>
+    <t>nonsynonymous</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>nonsense</t>
+  </si>
+  <si>
+    <t>synonymous</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>GAA</t>
+  </si>
+  <si>
+    <t>AA change</t>
+  </si>
+  <si>
+    <t>A123E, Q204*</t>
+  </si>
+  <si>
+    <t>G11V, G279E</t>
+  </si>
+  <si>
+    <t>N705Y</t>
+  </si>
+  <si>
+    <t>K22*</t>
+  </si>
+  <si>
+    <t>A210T</t>
+  </si>
+  <si>
+    <t>W31*</t>
+  </si>
+  <si>
+    <t>G82D</t>
+  </si>
+  <si>
+    <t>G29V</t>
+  </si>
+  <si>
+    <t>R217C</t>
+  </si>
+  <si>
+    <t>A130V</t>
+  </si>
+  <si>
+    <t>Y336*</t>
+  </si>
+  <si>
+    <t>I13F</t>
+  </si>
+  <si>
+    <t>D229Y, G192V</t>
+  </si>
+  <si>
+    <t>V209L</t>
+  </si>
+  <si>
+    <t>R400C,G251R</t>
+  </si>
+  <si>
+    <t>A434E</t>
+  </si>
+  <si>
+    <t>D116A</t>
+  </si>
+  <si>
+    <t>A924V</t>
+  </si>
+  <si>
+    <t>E192K</t>
+  </si>
+  <si>
+    <t>L222S</t>
+  </si>
+  <si>
+    <t>P136S, P26Q, L62E</t>
+  </si>
+  <si>
+    <t>A147T, V153A</t>
   </si>
 </sst>
 </file>
@@ -599,14 +828,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -647,6 +868,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -662,7 +890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -755,11 +983,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -800,12 +1048,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +1073,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,7 +1082,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,23 +1422,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF81ACB-951F-42A4-8DC2-D0FA48BDB75B}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="43.28515625" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="30"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="38.28515625" customWidth="1"/>
+    <col min="20" max="20" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,20 +1464,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="R1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1231,23 +1507,38 @@
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="I2" s="31">
+        <v>1047983</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1272,23 +1563,38 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="I3" s="31">
+        <v>1078897</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1311,23 +1617,38 @@
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="I4" s="31">
+        <v>103180</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1352,23 +1673,38 @@
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="I5" s="31">
+        <v>1047612</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="U5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1393,23 +1729,38 @@
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="I6" s="31">
+        <v>1061534</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1434,23 +1785,38 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="I7" s="31">
+        <v>1047741</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1473,26 +1839,41 @@
       <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="31">
+        <v>424936</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1515,26 +1896,41 @@
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="31">
+        <v>691291</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1557,23 +1953,38 @@
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="31">
+        <v>785765</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1598,26 +2009,41 @@
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="31">
+        <v>201328</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1642,26 +2068,41 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="31">
+        <v>200906</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1684,23 +2125,38 @@
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="31">
+        <v>782087</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1725,28 +2181,43 @@
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="str">
-        <f>CONCATENATE(K14," ",L14)</f>
+      <c r="I14" s="31">
+        <v>201155</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="str">
+        <f>CONCATENATE(P14," ",Q14)</f>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="3" t="s">
+      <c r="S14" s="5"/>
+      <c r="T14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1771,28 +2242,43 @@
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" ref="J15:J40" si="0">CONCATENATE(K15," ",L15)</f>
+      <c r="I15" s="31">
+        <v>201221</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" ref="O15:O40" si="0">CONCATENATE(P15," ",Q15)</f>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="2" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1817,30 +2303,45 @@
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J16" t="str">
+      <c r="I16" s="31">
+        <v>201739</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1863,30 +2364,45 @@
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J17" t="str">
+      <c r="I17" s="31">
+        <v>1547533</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1909,28 +2425,43 @@
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J18" t="str">
+      <c r="I18" s="31">
+        <v>1547786</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="3" t="s">
+      <c r="S18" s="5"/>
+      <c r="T18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1953,30 +2484,45 @@
       <c r="H19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J19" t="str">
+      <c r="I19" s="31">
+        <v>1733436</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1999,28 +2545,43 @@
       <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J20" t="str">
+      <c r="I20" s="31">
+        <v>1546832</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="2" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -2043,28 +2604,43 @@
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J21" t="str">
+      <c r="I21" s="31">
+        <v>199236</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="3" t="s">
+      <c r="S21" s="5"/>
+      <c r="T21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2089,30 +2665,45 @@
       <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J22" t="str">
+      <c r="I22" s="31">
+        <v>200999</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2137,30 +2728,45 @@
       <c r="H23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J23" t="str">
+      <c r="I23" s="31">
+        <v>201328</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -2183,30 +2789,45 @@
       <c r="H24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J24" t="str">
+      <c r="I24" s="31">
+        <v>1963583</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -2229,30 +2850,45 @@
       <c r="H25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J25" t="str">
+      <c r="I25" s="31">
+        <v>295424</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
         <v>E. faecium TX1330</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -2275,30 +2911,45 @@
       <c r="H26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J26" t="str">
+      <c r="I26" s="31">
+        <v>1547530</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -2321,28 +2972,43 @@
       <c r="H27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J27" t="str">
+      <c r="I27" s="31">
+        <v>11893</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="2" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -2367,30 +3033,45 @@
       <c r="H28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J28" t="str">
+      <c r="I28" s="31">
+        <v>201739</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2413,30 +3094,45 @@
       <c r="H29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J29" t="str">
+      <c r="I29" s="31">
+        <v>1533234</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2459,30 +3155,45 @@
       <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J30" t="str">
+      <c r="I30" s="31">
+        <v>2010961</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2505,30 +3216,45 @@
       <c r="H31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J31" t="str">
+      <c r="I31" s="31">
+        <v>100055</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2553,28 +3279,43 @@
       <c r="H32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J32" t="str">
+      <c r="I32" s="31">
+        <v>201773</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="3" t="s">
+      <c r="S32" s="5"/>
+      <c r="T32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
@@ -2599,30 +3340,45 @@
       <c r="H33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J33" t="str">
+      <c r="I33" s="31">
+        <v>201733</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O33" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis TX2137</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -2645,30 +3401,45 @@
       <c r="H34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J34" t="str">
+      <c r="I34" s="31">
+        <v>1321706</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O34" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis Yi6</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2691,28 +3462,43 @@
       <c r="H35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J35" t="str">
+      <c r="I35" s="31">
+        <v>1119892</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O35" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis Yi6</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="2" t="s">
+      <c r="S35" s="4"/>
+      <c r="T35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="U35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -2735,28 +3521,43 @@
       <c r="H36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J36" t="str">
+      <c r="I36" s="31">
+        <v>687143</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O36" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis Yi6</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="3" t="s">
+      <c r="S36" s="5"/>
+      <c r="T36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -2779,28 +3580,43 @@
       <c r="H37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J37" t="str">
+      <c r="I37" s="31">
+        <v>1801016</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O37" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis Yi6</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="2" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -2823,30 +3639,45 @@
       <c r="H38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J38" t="str">
+      <c r="I38" s="31">
+        <v>1120885</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O38" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis Yi6</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
@@ -2871,28 +3702,43 @@
       <c r="H39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J39" t="str">
+      <c r="I39" s="31">
+        <v>201733</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="O39" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis Yi6</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="2" t="s">
+      <c r="S39" s="4"/>
+      <c r="T39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -2915,28 +3761,43 @@
       <c r="H40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J40" t="str">
+      <c r="I40" s="31">
+        <v>1471772</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40" t="str">
         <f t="shared" si="0"/>
         <v>E. faecalis Yi6</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="3" t="s">
+      <c r="S40" s="5"/>
+      <c r="T40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2961,8 +3822,23 @@
       <c r="H41" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I41" s="31">
+        <v>200905</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -2987,8 +3863,23 @@
       <c r="H42" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I42" s="31">
+        <v>200906</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3011,8 +3902,23 @@
       <c r="H43" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I43" s="31">
+        <v>1952105</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -3037,8 +3943,23 @@
       <c r="H44" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I44" s="31">
+        <v>201758</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3063,8 +3984,23 @@
       <c r="H45" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I45" s="31">
+        <v>185147</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3087,8 +4023,23 @@
       <c r="H46" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I46" s="31">
+        <v>162383</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3113,8 +4064,23 @@
       <c r="H47" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I47" s="31">
+        <v>185257</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3137,8 +4103,23 @@
       <c r="H48" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="31">
+        <v>71917</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3163,8 +4144,23 @@
       <c r="H49" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="31">
+        <v>185800</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L49" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -3189,8 +4185,23 @@
       <c r="H50" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="31">
+        <v>198166</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3215,8 +4226,23 @@
       <c r="H51" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="31">
+        <v>198165</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3241,8 +4267,23 @@
       <c r="H52" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="31">
+        <v>198165</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -3267,8 +4308,23 @@
       <c r="H53" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="31">
+        <v>198308</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -3293,8 +4349,23 @@
       <c r="H54" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="31">
+        <v>185387</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -3317,8 +4388,23 @@
       <c r="H55" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="31">
+        <v>8777</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -3343,8 +4429,23 @@
       <c r="H56" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="31">
+        <v>185779</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3369,8 +4470,23 @@
       <c r="H57" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="31">
+        <v>185780</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -3395,8 +4511,21 @@
       <c r="H58" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="31">
+        <v>185269</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M58" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3421,8 +4550,23 @@
       <c r="H59" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="31">
+        <v>185081</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M59" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -3447,8 +4591,23 @@
       <c r="H60" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="31">
+        <v>185624</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L60" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +4632,23 @@
       <c r="H61" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="31">
+        <v>185401</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
@@ -3497,8 +4671,23 @@
       <c r="H62" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="31">
+        <v>162127</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
@@ -3523,8 +4712,23 @@
       <c r="H63" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="31">
+        <v>198165</v>
+      </c>
+      <c r="J63" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -3549,8 +4753,23 @@
       <c r="H64" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="31">
+        <v>198166</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M64" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -3573,8 +4792,23 @@
       <c r="H65" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="31">
+        <v>54095</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L65" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M65" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -3599,8 +4833,21 @@
       <c r="H66" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="31">
+        <v>198568</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M66" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -3625,8 +4872,23 @@
       <c r="H67" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="31">
+        <v>198414</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L67" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M67" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -3651,8 +4913,21 @@
       <c r="H68" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="31">
+        <v>1654123</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="M68" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
@@ -3677,8 +4952,23 @@
       <c r="H69" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="31">
+        <v>1654129</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L69" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
@@ -3703,8 +4993,23 @@
       <c r="H70" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="31">
+        <v>1654127</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,8 +5034,23 @@
       <c r="H71" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="31">
+        <v>1654113</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L71" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
@@ -3753,8 +5073,21 @@
       <c r="H72" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="31">
+        <v>1370112</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
@@ -3777,8 +5110,23 @@
       <c r="H73" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="31">
+        <v>859807</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L73" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3801,8 +5149,21 @@
       <c r="H74" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="31">
+        <v>678286</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +5188,21 @@
       <c r="H75" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="31">
+        <v>1654142</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M75" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -3851,8 +5225,23 @@
       <c r="H76" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="31">
+        <v>266221</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L76" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>8</v>
       </c>
@@ -3874,6 +5263,21 @@
       </c>
       <c r="H77" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="I77" s="31">
+        <v>285674</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L77" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3884,717 +5288,638 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A50A6-9E6E-40DD-B5BD-D907EEA4729A}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7" style="15" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="17.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="E6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="C23" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="C24" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="B25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="26" t="s">
+      <c r="B26" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>24</v>
-      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
